--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject36.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject36.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -293,13 +293,13 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.64826041624929831</v>
       </c>
       <c r="BE1" s="0">
-        <v>0</v>
+        <v>0.86157917753228963</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -346,13 +346,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>0.88121315328780825</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>0.52465636303993102</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>0</v>
+        <v>0.81381375503094611</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -406,16 +406,16 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0</v>
+        <v>0.88929156602528492</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
       </c>
       <c r="AB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="0">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.85781688885492935</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>0</v>
+        <v>0.71998966573132428</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>0</v>
+        <v>0.62618956817451821</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.89884817793018734</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="0">
-        <v>0</v>
+        <v>0.68097981254015161</v>
       </c>
       <c r="BH4" s="0">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0</v>
+        <v>0.90712771128691461</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>0</v>
+        <v>0.72559719982251403</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>0</v>
+        <v>0.87789728439223702</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0</v>
+        <v>0.85523173506573702</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>0</v>
+        <v>0.60104617453928688</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.54885610072525659</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.51352281366268615</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>0</v>
+        <v>0.99084508530264848</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>0.8918706253105958</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>0</v>
+        <v>0.67908976681241073</v>
       </c>
       <c r="O7" s="0">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.54961256774389433</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.98651649705565481</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>0</v>
+        <v>0.61534467246211844</v>
       </c>
       <c r="V8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.60635251100755161</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="0">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.53222158716204138</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="0">
         <v>0</v>
@@ -1884,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>0</v>
+        <v>0.7277859963885176</v>
       </c>
       <c r="AL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="0">
-        <v>0</v>
+        <v>0.89846744654992583</v>
       </c>
       <c r="BE9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.60447031948537189</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.70911463338968961</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.64947607059273205</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>0</v>
+        <v>0.53593212561296855</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0</v>
+        <v>0.94629642625831512</v>
       </c>
       <c r="P10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>0</v>
+        <v>0.75658606172635479</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="AM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>0</v>
+        <v>0.51603017447999844</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.91517920367161865</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>0</v>
+        <v>0.78095564142310547</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>0.60750440522341587</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.85169029490667225</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.63176482061205363</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.90647539161615065</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>0</v>
+        <v>0.51763425200662416</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.97615082274485454</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.6653171635870202</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>0</v>
+        <v>0.64035611120694713</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="0">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="0">
-        <v>0</v>
+        <v>0.84677123426496925</v>
       </c>
       <c r="BB12" s="0">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>0.95574922254489414</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.96247716473639588</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>0</v>
+        <v>0.98347315950100622</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -2705,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="0">
         <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>0</v>
+        <v>0.9692349537133006</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.97409004262110876</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="0">
-        <v>0</v>
+        <v>0.7854191774931385</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.91398579256604984</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0</v>
+        <v>0.68951958062331931</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.88084564443315161</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>0.51646658863776784</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="0">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="AI15" s="0">
-        <v>0</v>
+        <v>0.6082468057796564</v>
       </c>
       <c r="AJ15" s="0">
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="0">
-        <v>0</v>
+        <v>0.94669887284085552</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
       </c>
       <c r="BK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
+        <v>0.56687453973565538</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.84959388286162041</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="AI16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="0">
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>1</v>
+        <v>0.59249068210256906</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0</v>
+        <v>0.83074504303844798</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0</v>
+        <v>0.99357680880940391</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>1</v>
+        <v>0.91605470970018865</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.73583106543214583</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
       </c>
       <c r="AI17" s="0">
-        <v>0</v>
+        <v>0.88384705080439985</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>0.8712355275756174</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.872737762470704</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0</v>
+        <v>0.97822271784803849</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0</v>
+        <v>0.96754809151858756</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>0</v>
+        <v>0.88213442485578764</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0</v>
+        <v>0.69130091192895993</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>0</v>
+        <v>0.58154606199773884</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.96654067142056133</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="0">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>0.78643969666329716</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.65814780328745592</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.94099102903926468</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="0">
-        <v>0</v>
+        <v>0.91153976192644293</v>
       </c>
       <c r="AR20" s="0">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
       </c>
       <c r="AW20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>0</v>
+        <v>0.77371296911921505</v>
       </c>
       <c r="I21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.63267653357961706</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.67114332684705102</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.95363820547467348</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="0">
-        <v>0</v>
+        <v>0.6897389118373034</v>
       </c>
       <c r="AA22" s="0">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.95651393240036209</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4625,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0</v>
+        <v>0.61612762839649204</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>0</v>
+        <v>0.58009562532852277</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.73045174093067888</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0</v>
+        <v>0.89686689471646852</v>
       </c>
       <c r="AD23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4777,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
       </c>
       <c r="AP23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="0">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="0">
-        <v>0</v>
+        <v>0.67357348058619015</v>
       </c>
       <c r="AU23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0</v>
+        <v>0.71690711690181486</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0</v>
+        <v>0.97499779881999837</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5040,22 +5040,22 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.79558399567512916</v>
       </c>
       <c r="BH24" s="0">
-        <v>0</v>
+        <v>0.69746471704336144</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>0</v>
+        <v>0.95798527786121634</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0</v>
+        <v>0.65126069257325936</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.88894867369528807</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.6730352007030973</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>0</v>
+        <v>0.81025846494910569</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.96136470050596479</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0</v>
+        <v>0.52635437218072512</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5389,16 +5389,16 @@
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0</v>
+        <v>0.7514060883546001</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>0</v>
+        <v>0.61216118184373702</v>
       </c>
       <c r="AO26" s="0">
-        <v>0</v>
+        <v>0.53439877585053752</v>
       </c>
       <c r="AP26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>0</v>
+        <v>0.99651134967731347</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="BN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.88949041804757356</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.64902897194789666</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0</v>
+        <v>0.77107106041522178</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>0.75104594943086056</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.79802189769693643</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.98496007230729177</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>1</v>
+        <v>0.69545573848408593</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0</v>
+        <v>0.6432832751439671</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.57012070326907771</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5986,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.60754227565767693</v>
       </c>
       <c r="AF29" s="0">
-        <v>0</v>
+        <v>0.5141201026154183</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.64654689782689068</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="0">
         <v>0</v>
@@ -6046,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="AY29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="0">
         <v>0</v>
       </c>
       <c r="BA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="0">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>0</v>
+        <v>0.84028832946929932</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.99303027845108627</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6156,19 +6156,19 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.93586045296907416</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.51747159424692857</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.74450038938586427</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0</v>
+        <v>0.95738274307690285</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6491,16 +6491,16 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="0">
-        <v>0</v>
+        <v>0.94125874806947585</v>
       </c>
       <c r="BK31" s="0">
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" s="0">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>0</v>
+        <v>0.65738002294786679</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.98951079063530356</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>0</v>
+        <v>0.67712480660732965</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>0</v>
       </c>
       <c r="AC32" s="0">
-        <v>0</v>
+        <v>0.66010892562030843</v>
       </c>
       <c r="AD32" s="0">
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.54443932876450729</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
       </c>
       <c r="AI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>1</v>
+        <v>0.50539444328355221</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.98447102421434785</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="0">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>0</v>
+        <v>0.96838190407223257</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>0</v>
+        <v>0.93911489202644782</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7174,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="0">
-        <v>0</v>
+        <v>0.91985984183505654</v>
       </c>
       <c r="P35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0</v>
+        <v>0.95424522003725332</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.92525689227703478</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.64592559436379215</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>0.57772141051801151</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7395,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.73278653544394112</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0</v>
+        <v>0.52112278881140606</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
+        <v>0.72195944540623946</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7586,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>1</v>
+        <v>0.78974124690948844</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.57063630388408226</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.51154632437523984</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>0</v>
+        <v>0.8592822348182636</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0</v>
+        <v>0.79924075107115189</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7774,19 +7774,19 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.71579539467117126</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>0</v>
+        <v>0.726087244439794</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0</v>
+        <v>0.57869793650961654</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0</v>
+        <v>0.84417963750213976</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.68604413143276255</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7864,13 +7864,13 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7882,16 +7882,16 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0</v>
+        <v>0.79808027552190386</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.64300276123202127</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8106,13 +8106,13 @@
         <v>0</v>
       </c>
       <c r="AY39" s="0">
-        <v>0</v>
+        <v>0.56922281481028536</v>
       </c>
       <c r="AZ39" s="0">
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.92317479909683842</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL39" s="0">
         <v>0</v>
@@ -8189,10 +8189,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0</v>
+        <v>0.55549008901567021</v>
       </c>
       <c r="K40" s="0">
-        <v>0</v>
+        <v>0.73225481253602309</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>0</v>
+        <v>0.96979597947275975</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="0">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="0">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>0</v>
+        <v>0.73182057902712283</v>
       </c>
       <c r="AA41" s="0">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="0">
         <v>0</v>
@@ -8521,22 +8521,22 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>0</v>
+        <v>0.85053760795164524</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
       </c>
       <c r="BB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>0</v>
+        <v>0.76726787203849722</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0</v>
+        <v>0.64902630981346787</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.81991274694620997</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0</v>
+        <v>0.91001011943217103</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8622,10 +8622,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0</v>
+        <v>0.8908176949969705</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="0">
         <v>0</v>
@@ -8679,10 +8679,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>0</v>
+        <v>0.78099867851774962</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0</v>
+        <v>0.86041581901356534</v>
       </c>
       <c r="AW42" s="0">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>0</v>
+        <v>0.87518567579211015</v>
       </c>
       <c r="BH42" s="0">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>0</v>
+        <v>0.90873541441384642</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.87305809774559306</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0</v>
+        <v>0.76961563926178389</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
       </c>
       <c r="BA43" s="0">
-        <v>0</v>
+        <v>0.97464162493339157</v>
       </c>
       <c r="BB43" s="0">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="0">
-        <v>0</v>
+        <v>0.91250483626278756</v>
       </c>
       <c r="BF43" s="0">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>0</v>
+        <v>0.72876410708156558</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.85142180485746755</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF44" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>0</v>
+        <v>0.70005314826091203</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>0</v>
+        <v>0.56048948047259151</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>0.68668195574658575</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.52066747485328468</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.59526941181307158</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.67832682095674346</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>0.99383149033948825</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="AE46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.9221421869028863</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.69613632841491024</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>0</v>
+        <v>0.67498256981389604</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0</v>
+        <v>0.69075578407341709</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>0</v>
+        <v>0.88962027921348696</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.51404573011347565</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.82626170858031367</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>0</v>
+        <v>0.66433907790112556</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0</v>
+        <v>0.85176051332411618</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="0">
-        <v>0</v>
+        <v>0.56129614646249748</v>
       </c>
       <c r="AQ48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.90452056594349672</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0</v>
+        <v>0.89040892103103486</v>
       </c>
     </row>
     <row r="49">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.95896482911635506</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.77001466137576868</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="BH49" s="0">
-        <v>1</v>
+        <v>0.64031638730579354</v>
       </c>
       <c r="BI49" s="0">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.65256384714241933</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>0</v>
+        <v>0.64961054593678047</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0</v>
+        <v>0.69186072341843541</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0</v>
+        <v>0.91153956028221617</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="0">
-        <v>0</v>
+        <v>0.66232057514116338</v>
       </c>
       <c r="AN51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0</v>
+        <v>0.67765839767193159</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.62607726928720597</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.76394905133882129</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10700,10 +10700,10 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0</v>
+        <v>0.63293844798226728</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>0</v>
+        <v>0.94606861854944735</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.78290925694882874</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK52" s="0">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>0</v>
+        <v>0.78838155034569957</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>0</v>
+        <v>0.87334513469538344</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.92111469832719484</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>0</v>
+        <v>0.88343565800239587</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.79401533006437686</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.75922381844817899</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0</v>
+        <v>0.54906840377803046</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>0</v>
+        <v>0.99467643609059708</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.57042451783433523</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11229,10 +11229,10 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0</v>
+        <v>0.51868523098532615</v>
       </c>
       <c r="BK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>0</v>
+        <v>0.71898091156781607</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0</v>
+        <v>0.50223687584735832</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11402,13 +11402,13 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.54838666796236368</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.94160910907091488</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>0</v>
+        <v>0.7437594820884027</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11545,10 +11545,10 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0</v>
+        <v>0.62682090279306479</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>0</v>
+        <v>0.77455184622606343</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>0.61022599252511811</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11781,19 +11781,19 @@
         <v>0</v>
       </c>
       <c r="AN57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>0</v>
+        <v>0.95036160721282692</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
       </c>
       <c r="AQ57" s="0">
-        <v>0</v>
+        <v>0.54727096515792018</v>
       </c>
       <c r="AR57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.98738090804480083</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0</v>
+        <v>0.59008722029742255</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12053,13 +12053,13 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>0</v>
+        <v>0.85083235114829581</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>0</v>
+        <v>0.72132317055924666</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="0">
-        <v>0</v>
+        <v>0.90232724304789214</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0</v>
+        <v>0.51662283212384141</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12139,13 +12139,13 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>0.7458162869179058</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.83622921137293216</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12154,16 +12154,16 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0</v>
+        <v>0.72781029574870326</v>
       </c>
       <c r="AB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0</v>
+        <v>0.57946353247146676</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.99628247966761974</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12351,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0</v>
+        <v>0.885663395929283</v>
       </c>
       <c r="Y60" s="0">
-        <v>0</v>
+        <v>0.76463750607064673</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>0</v>
+        <v>0.56481223727201557</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>0</v>
+        <v>0.84971236607136125</v>
       </c>
       <c r="AS60" s="0">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="AW60" s="0">
-        <v>1</v>
+        <v>0.99695805251396874</v>
       </c>
       <c r="AX60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.82352187495538121</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE61" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.84866452567017781</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.98110862002137578</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>0.92515578787683928</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0</v>
+        <v>0.90075644308929215</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="0">
-        <v>0</v>
+        <v>0.79094875754903593</v>
       </c>
       <c r="AF62" s="0">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12847,13 +12847,13 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="0">
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0</v>
+        <v>0.96767829739582567</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12865,16 +12865,16 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>0</v>
+        <v>0.62701936555094651</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.79844151891313242</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.80333513092527431</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -12942,10 +12942,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0</v>
+        <v>0.96152263572298757</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>0</v>
+        <v>0.58010344298816441</v>
       </c>
       <c r="W63" s="0">
         <v>0</v>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="0">
         <v>0</v>
@@ -13056,10 +13056,10 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0</v>
+        <v>0.56644714773132665</v>
       </c>
       <c r="BB63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.84746950750945627</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13106,13 +13106,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>0</v>
+        <v>0.68771738418691974</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>0</v>
+        <v>0.52253121385641954</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0</v>
+        <v>0.64146467038281196</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13301,13 +13301,13 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>0</v>
+        <v>0.61494500835896804</v>
       </c>
       <c r="BP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0</v>
+        <v>0.63454166912542642</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0</v>
+        <v>0.75668548651524592</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>0</v>
+        <v>0.51629808506084152</v>
       </c>
     </row>
     <row r="66">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0</v>
+        <v>0.89441174562515502</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13590,10 +13590,10 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>0.8574481965597659</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13638,13 +13638,13 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.60128815037412031</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13769,10 +13769,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>1</v>
+        <v>0.76479018408726174</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="BL67" s="0">
-        <v>0</v>
+        <v>0.64863386786632127</v>
       </c>
       <c r="BM67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.59261331991037758</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="0">
         <v>0</v>
@@ -14059,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="AR68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0</v>
+        <v>0.63277295534300682</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
@@ -14119,10 +14119,10 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0</v>
+        <v>0.81741172196899947</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject36.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject36.xlsx
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0.64826041624929831</v>
+        <v>0.94160910907091488</v>
       </c>
       <c r="BE1" s="0">
         <v>0.86157917753228963</v>
@@ -352,7 +352,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0.88121315328780825</v>
+        <v>0.8918706253105958</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0.52465636303993102</v>
+        <v>0.60447031948537189</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.88929156602528492</v>
+        <v>0.96136470050596479</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>0.71998966573132428</v>
+        <v>0.78643969666329716</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>0.62618956817451821</v>
+        <v>0.72876410708156558</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="0">
-        <v>0.68097981254015161</v>
+        <v>0.90232724304789214</v>
       </c>
       <c r="BH4" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.72559719982251403</v>
+        <v>0.75104594943086056</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0.85523173506573702</v>
+        <v>0.92515578787683928</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>0.60104617453928688</v>
+        <v>0.89441174562515502</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.54885610072525659</v>
+        <v>0.89884817793018734</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.51352281366268615</v>
+        <v>0.54961256774389433</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>0.67908976681241073</v>
+        <v>0.7854191774931385</v>
       </c>
       <c r="O7" s="0">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>0.61534467246211844</v>
+        <v>0.77371296911921505</v>
       </c>
       <c r="V8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.60635251100755161</v>
+        <v>0.98951079063530356</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.53222158716204138</v>
+        <v>0.64947607059273205</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.70911463338968961</v>
+        <v>0.98651649705565481</v>
       </c>
       <c r="I10" s="0">
         <v>0.64947607059273205</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>0.53593212561296855</v>
+        <v>0.95574922254489414</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.51603017447999844</v>
+        <v>0.55549008901567021</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0.60750440522341587</v>
+        <v>0.90712771128691461</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.85169029490667225</v>
+        <v>0.96247716473639588</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0.63176482061205363</v>
+        <v>0.65814780328745592</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.51763425200662416</v>
+        <v>0.73225481253602309</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.6653171635870202</v>
+        <v>0.79802189769693643</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.64035611120694713</v>
+        <v>0.67712480660732965</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="0">
-        <v>0.84677123426496925</v>
+        <v>0.87334513469538344</v>
       </c>
       <c r="BB12" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.91398579256604984</v>
+        <v>0.97615082274485454</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.68951958062331931</v>
+        <v>0.91001011943217103</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0.88084564443315161</v>
+        <v>0.95896482911635506</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0.51646658863776784</v>
+        <v>0.94629642625831512</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="0">
-        <v>0.6082468057796564</v>
+        <v>0.91985984183505654</v>
       </c>
       <c r="AJ15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>0.56687453973565538</v>
+        <v>0.81381375503094611</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.84959388286162041</v>
+        <v>0.99303027845108627</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>0.59249068210256906</v>
+        <v>0.78974124690948844</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0.83074504303844798</v>
+        <v>0.85176051332411618</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.73583106543214583</v>
+        <v>0.872737762470704</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="0">
-        <v>0.88384705080439985</v>
+        <v>0.95424522003725332</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>0.88213442485578764</v>
+        <v>0.99467643609059708</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>0.58154606199773884</v>
+        <v>0.75658606172635479</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0.94099102903926468</v>
+        <v>0.96654067142056133</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.63267653357961706</v>
+        <v>0.95363820547467348</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.67114332684705102</v>
+        <v>0.93586045296907416</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0.61612762839649204</v>
+        <v>0.7458162869179058</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>0.58009562532852277</v>
+        <v>0.58010344298816441</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.73045174093067888</v>
+        <v>0.88894867369528807</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="0">
-        <v>0.67357348058619015</v>
+        <v>0.99383149033948825</v>
       </c>
       <c r="AU23" s="0">
         <v>0</v>
@@ -5040,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.79558399567512916</v>
+        <v>0.83622921137293216</v>
       </c>
       <c r="BH24" s="0">
-        <v>0.69746471704336144</v>
+        <v>0.885663395929283</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0.65126069257325936</v>
+        <v>0.68771738418691974</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.6730352007030973</v>
+        <v>0.88949041804757356</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0.52635437218072512</v>
+        <v>0.6897389118373034</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5389,16 +5389,16 @@
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.7514060883546001</v>
+        <v>0.84417963750213976</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>0.61216118184373702</v>
+        <v>0.96979597947275975</v>
       </c>
       <c r="AO26" s="0">
-        <v>0.53439877585053752</v>
+        <v>0.73182057902712283</v>
       </c>
       <c r="AP26" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0.64902897194789666</v>
+        <v>0.87305809774559306</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0.6432832751439671</v>
+        <v>0.89686689471646852</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.57012070326907771</v>
+        <v>0.98496007230729177</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0.60754227565767693</v>
       </c>
       <c r="AF29" s="0">
-        <v>0.5141201026154183</v>
+        <v>0.66010892562030843</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0.64654689782689068</v>
+        <v>0.68604413143276255</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>0.84028832946929932</v>
+        <v>0.98347315950100622</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.51747159424692857</v>
+        <v>0.60754227565767693</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>0.65738002294786679</v>
+        <v>0.87789728439223702</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.54443932876450729</v>
+        <v>0.74450038938586427</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>0.50539444328355221</v>
+        <v>0.69545573848408593</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0.92525689227703478</v>
+        <v>0.95651393240036209</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.64592559436379215</v>
+        <v>0.98447102421434785</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0.57772141051801151</v>
+        <v>0.8574481965597659</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0.52112278881140606</v>
+        <v>0.91153956028221617</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0.72195944540623946</v>
+        <v>0.7277859963885176</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.57063630388408226</v>
+        <v>0.73278653544394112</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.51154632437523984</v>
+        <v>0.64300276123202127</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0.79924075107115189</v>
+        <v>0.88962027921348696</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7780,13 +7780,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.71579539467117126</v>
+        <v>0.90647539161615065</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>0.726087244439794</v>
+        <v>0.9692349537133006</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0.57869793650961654</v>
+        <v>0.97822271784803849</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.79808027552190386</v>
+        <v>0.8712355275756174</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="AY39" s="0">
-        <v>0.56922281481028536</v>
+        <v>0.66232057514116338</v>
       </c>
       <c r="AZ39" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>0.85053760795164524</v>
+        <v>0.94606861854944735</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0.64902630981346787</v>
+        <v>0.95036160721282692</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0.8908176949969705</v>
+        <v>0.96754809151858756</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>0.78099867851774962</v>
+        <v>0.8592822348182636</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>0.90873541441384642</v>
+        <v>0.91153976192644293</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>0.70005314826091203</v>
+        <v>0.84971236607136125</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>0.68668195574658575</v>
+        <v>0.71690711690181486</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.52066747485328468</v>
+        <v>0.85142180485746755</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.59526941181307158</v>
+        <v>0.9221421869028863</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0.67832682095674346</v>
+        <v>0.97409004262110876</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>0.67498256981389604</v>
+        <v>0.94669887284085552</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0.69075578407341709</v>
+        <v>0.99651134967731347</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.51404573011347565</v>
+        <v>0.69613632841491024</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.82626170858031367</v>
+        <v>0.90452056594349672</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="0">
-        <v>0.56129614646249748</v>
+        <v>0.86041581901356534</v>
       </c>
       <c r="AQ48" s="0">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="BH49" s="0">
-        <v>0.64031638730579354</v>
+        <v>0.99695805251396874</v>
       </c>
       <c r="BI49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.65256384714241933</v>
+        <v>0.78290925694882874</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>0.64961054593678047</v>
+        <v>0.77455184622606343</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0.69186072341843541</v>
+        <v>0.75668548651524592</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0.67765839767193159</v>
+        <v>0.76961563926178389</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.62607726928720597</v>
+        <v>0.77001466137576868</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0.76394905133882129</v>
+        <v>0.91517920367161865</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0.63293844798226728</v>
+        <v>0.97499779881999837</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>0.78838155034569957</v>
+        <v>0.99084508530264848</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.92111469832719484</v>
+        <v>0.92317479909683842</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>0.88343565800239587</v>
+        <v>0.97464162493339157</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0.54906840377803046</v>
+        <v>0.56644714773132665</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.57042451783433523</v>
+        <v>0.79401533006437686</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0.51868523098532615</v>
+        <v>0.96767829739582567</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>0.71898091156781607</v>
+        <v>0.76726787203849722</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0.50223687584735832</v>
+        <v>0.66433907790112556</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.54838666796236368</v>
+        <v>0.75922381844817899</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>0.7437594820884027</v>
+        <v>0.89846744654992583</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0.62682090279306479</v>
+        <v>0.95738274307690285</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.61022599252511811</v>
+        <v>0.86157917753228963</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="0">
-        <v>0.54727096515792018</v>
+        <v>0.91250483626278756</v>
       </c>
       <c r="AR57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.98738090804480083</v>
+        <v>0.99628247966761974</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0.59008722029742255</v>
+        <v>0.69130091192895993</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0.51662283212384141</v>
+        <v>0.78095564142310547</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0.72781029574870326</v>
+        <v>0.77107106041522178</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0.57946353247146676</v>
+        <v>0.87518567579211015</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0.885663395929283</v>
       </c>
       <c r="Y60" s="0">
-        <v>0.76463750607064673</v>
+        <v>0.81025846494910569</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>0.56481223727201557</v>
+        <v>0.96838190407223257</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0.90075644308929215</v>
+        <v>0.95798527786121634</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="0">
-        <v>0.79094875754903593</v>
+        <v>0.94125874806947585</v>
       </c>
       <c r="AF62" s="0">
         <v>0</v>
@@ -12865,16 +12865,16 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>0.62701936555094651</v>
+        <v>0.85083235114829581</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.79844151891313242</v>
+        <v>0.82352187495538121</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.80333513092527431</v>
+        <v>0.84866452567017781</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0.96152263572298757</v>
+        <v>0.99357680880940391</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.84746950750945627</v>
+        <v>0.98110862002137578</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>0.52253121385641954</v>
+        <v>0.56048948047259151</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0.64146467038281196</v>
+        <v>0.72132317055924666</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>0.61494500835896804</v>
+        <v>0.64863386786632127</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.63454166912542642</v>
+        <v>0.93911489202644782</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>0.51629808506084152</v>
+        <v>0.81741172196899947</v>
       </c>
     </row>
     <row r="66">
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0.60128815037412031</v>
+        <v>0.81991274694620997</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0.76479018408726174</v>
+        <v>0.91605470970018865</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.59261331991037758</v>
+        <v>0.85781688885492935</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0.63277295534300682</v>
+        <v>0.89040892103103486</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
